--- a/flujo 1/Flujo1.xlsx
+++ b/flujo 1/Flujo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09384038\Documents\GitHub\PepsiCoTestAutomation\flujo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A7A41F-777F-45B8-BD00-D5374CC1BA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D5D24-9747-49D9-B3AC-5D846366003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="735" yWindow="2475" windowWidth="15375" windowHeight="6615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -874,9 +874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
